--- a/cloud_lab1/AWS team5 Фалькович.xlsx
+++ b/cloud_lab1/AWS team5 Фалькович.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\itmo\sem3\Облака\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347564D-CB84-4B4A-B13C-AA9588D49FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E2B5C-D064-45FB-8CAD-33370ADE2CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3DD33E3-3169-4FBD-BCB6-D3A1ED6E40BC}"/>
   </bookViews>
@@ -619,19 +619,19 @@
     <t>Storage Information</t>
   </si>
   <si>
-    <t>Get Response Time</t>
-  </si>
-  <si>
-    <t>Data Scaling</t>
-  </si>
-  <si>
-    <t>Taking Snapshots</t>
-  </si>
-  <si>
-    <t>Organize Your AWS Bill</t>
-  </si>
-  <si>
-    <t>Get Throughput</t>
+    <t>I/O Operations</t>
+  </si>
+  <si>
+    <t>Volume Storage</t>
+  </si>
+  <si>
+    <t>Snapshot Storage</t>
+  </si>
+  <si>
+    <t>Snapshot Billing</t>
+  </si>
+  <si>
+    <t>Provisioned IOPS</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F03BDFC-6928-4298-B25E-79552156AE83}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,7 +2493,7 @@
       <c r="D42" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" t="s">
         <v>190</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2522,7 +2522,7 @@
       <c r="D43" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" t="s">
         <v>191</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -2551,7 +2551,7 @@
       <c r="D44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" t="s">
         <v>192</v>
       </c>
       <c r="F44" s="6" t="s">
